--- a/3D_Boids_Render/positionTypes.xlsx
+++ b/3D_Boids_Render/positionTypes.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
   <si>
     <t>Ahead</t>
   </si>
@@ -82,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="true"/>
@@ -170,17 +212,17 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -200,132 +242,277 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
